--- a/Tables/Coal_UR_Test.xlsx
+++ b/Tables/Coal_UR_Test.xlsx
@@ -368,7 +368,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>-16.179</v>
+        <v>-17.487</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -379,10 +379,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.021</v>
+        <v>-3.976</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="4">
@@ -390,10 +390,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.613</v>
+        <v>-1.514</v>
       </c>
       <c r="C4" t="n">
-        <v>0.434</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Coal_UR_Test.xlsx
+++ b/Tables/Coal_UR_Test.xlsx
@@ -382,7 +382,7 @@
         <v>-3.976</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -393,7 +393,7 @@
         <v>-1.514</v>
       </c>
       <c r="C4" t="n">
-        <v>0.45</v>
+        <v>0.453</v>
       </c>
     </row>
   </sheetData>
